--- a/Config. file.xlsx
+++ b/Config. file.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B02CAB-540B-4F29-8EDC-031199DF8BBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E46D79-F5DB-47F5-859A-4CF1AB806E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get_Process" sheetId="1" r:id="rId1"/>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EE221C-C00E-454A-852D-FA29917A0F17}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2550,7 +2550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE819AE1-6075-4823-80AE-E5F8954A154E}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
